--- a/st00.docs/html&css정리-220521.xlsx
+++ b/st00.docs/html&css정리-220521.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HtmlCss220521\HtmlCss\st00.docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="501">
   <si>
     <t>텍스트 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1388,14 +1393,6 @@
   </si>
   <si>
     <t>마지막 태그를 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공식을 이용한 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:nth-child(2n)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2852,6 +2849,80 @@
         <scheme val="minor"/>
       </rPr>
       <t>를 사용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공식을 이용한 찾기. 3n의 의미는 3의 배수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:nth-child(3n+0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>+0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실제로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계산되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공식</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3290,7 +3361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3615,6 +3686,21 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3636,11 +3722,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3651,11 +3749,14 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -3666,11 +3767,23 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3687,23 +3800,8 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3717,44 +3815,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3765,6 +3839,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4358,7 +4435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4393,7 +4470,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4604,7 +4681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -4617,7 +4694,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26.25">
       <c r="A1" s="101" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -4647,12 +4724,12 @@
       <c r="C3" s="40"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="110" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4" s="110"/>
+      <c r="A4" s="115" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="115"/>
       <c r="C4" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4674,12 +4751,12 @@
         <v>85</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="102" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -4689,7 +4766,7 @@
         <v>86</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C8" s="14"/>
     </row>
@@ -4698,10 +4775,10 @@
         <v>87</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4716,18 +4793,18 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="116" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="112"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="14" t="s">
         <v>76</v>
       </c>
@@ -4736,41 +4813,41 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="66">
-      <c r="A15" s="112"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="113"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="66">
-      <c r="A17" s="114" t="s">
-        <v>470</v>
+      <c r="A17" s="119" t="s">
+        <v>468</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="66" hidden="1">
-      <c r="A18" s="115"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="87" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="132">
@@ -4778,10 +4855,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="49.5">
@@ -4789,10 +4866,10 @@
         <v>105</v>
       </c>
       <c r="B20" s="87" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="33">
@@ -4803,27 +4880,27 @@
         <v>79</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="49.5">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="119" t="s">
         <v>106</v>
       </c>
       <c r="B22" s="90" t="s">
         <v>102</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="33">
-      <c r="A23" s="115"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="88" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="88" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="43.5" customHeight="1">
@@ -4831,68 +4908,68 @@
         <v>3</v>
       </c>
       <c r="B24" s="87" t="s">
-        <v>490</v>
-      </c>
-      <c r="C24" s="114" t="s">
-        <v>491</v>
+        <v>488</v>
+      </c>
+      <c r="C24" s="119" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A25" s="147" t="s">
-        <v>484</v>
+      <c r="A25" s="123" t="s">
+        <v>482</v>
       </c>
       <c r="B25" s="87" t="s">
-        <v>487</v>
-      </c>
-      <c r="C25" s="146"/>
+        <v>485</v>
+      </c>
+      <c r="C25" s="120"/>
     </row>
     <row r="26" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A26" s="148"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="87" t="s">
-        <v>488</v>
-      </c>
-      <c r="C26" s="146"/>
+        <v>486</v>
+      </c>
+      <c r="C26" s="120"/>
     </row>
     <row r="27" spans="1:7" ht="85.5" customHeight="1">
-      <c r="A27" s="149"/>
+      <c r="A27" s="125"/>
       <c r="B27" s="87" t="s">
-        <v>489</v>
-      </c>
-      <c r="C27" s="115"/>
+        <v>487</v>
+      </c>
+      <c r="C27" s="121"/>
       <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="111" t="s">
-        <v>440</v>
+      <c r="A28" s="116" t="s">
+        <v>438</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" ht="33">
-      <c r="A29" s="112"/>
+      <c r="A29" s="117"/>
       <c r="B29" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="33">
-      <c r="A30" s="113"/>
+      <c r="A30" s="118"/>
       <c r="B30" s="41" t="s">
         <v>94</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="122" t="s">
         <v>107</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -4903,7 +4980,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="112"/>
+      <c r="A32" s="117"/>
       <c r="B32" s="14" t="s">
         <v>89</v>
       </c>
@@ -4912,7 +4989,7 @@
       </c>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="112"/>
+      <c r="A33" s="117"/>
       <c r="B33" s="14" t="s">
         <v>90</v>
       </c>
@@ -4921,7 +4998,7 @@
       </c>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="112"/>
+      <c r="A34" s="117"/>
       <c r="B34" s="14" t="s">
         <v>108</v>
       </c>
@@ -4930,7 +5007,7 @@
       </c>
     </row>
     <row r="35" spans="1:16384">
-      <c r="A35" s="112"/>
+      <c r="A35" s="117"/>
       <c r="B35" s="14" t="s">
         <v>91</v>
       </c>
@@ -4939,7 +5016,7 @@
       </c>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="113"/>
+      <c r="A36" s="118"/>
       <c r="B36" s="14" t="s">
         <v>92</v>
       </c>
@@ -4949,7 +5026,7 @@
     </row>
     <row r="38" spans="1:16384">
       <c r="A38" s="103" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="104"/>
@@ -21336,10 +21413,10 @@
       <c r="XFD38" s="105"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="108" t="s">
-        <v>474</v>
-      </c>
-      <c r="B39" s="109"/>
+      <c r="A39" s="113" t="s">
+        <v>472</v>
+      </c>
+      <c r="B39" s="114"/>
       <c r="C39" s="104"/>
       <c r="D39" s="105"/>
       <c r="E39" s="104"/>
@@ -37724,46 +37801,41 @@
       <c r="XFD39" s="105"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="152" t="s">
-        <v>496</v>
-      </c>
-      <c r="B41" s="153"/>
-      <c r="C41" s="154"/>
+      <c r="A41" s="110" t="s">
+        <v>494</v>
+      </c>
+      <c r="B41" s="111"/>
+      <c r="C41" s="112"/>
     </row>
     <row r="42" spans="1:16384">
       <c r="A42" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="B42" s="150" t="s">
-        <v>497</v>
-      </c>
-      <c r="C42" s="150"/>
+        <v>469</v>
+      </c>
+      <c r="B42" s="109" t="s">
+        <v>495</v>
+      </c>
+      <c r="C42" s="109"/>
     </row>
     <row r="43" spans="1:16384">
       <c r="A43" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="B43" s="151" t="s">
-        <v>498</v>
-      </c>
-      <c r="C43" s="151"/>
+        <v>470</v>
+      </c>
+      <c r="B43" s="108" t="s">
+        <v>496</v>
+      </c>
+      <c r="C43" s="108"/>
     </row>
     <row r="44" spans="1:16384">
       <c r="A44" s="41" t="s">
-        <v>473</v>
-      </c>
-      <c r="B44" s="151" t="s">
-        <v>499</v>
-      </c>
-      <c r="C44" s="151"/>
+        <v>471</v>
+      </c>
+      <c r="B44" s="108" t="s">
+        <v>497</v>
+      </c>
+      <c r="C44" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="C24:C27"/>
@@ -37772,6 +37844,11 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37801,17 +37878,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="26.25">
-      <c r="A2" s="119" t="s">
-        <v>479</v>
-      </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
+      <c r="A2" s="128" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="77"/>
@@ -37824,160 +37901,160 @@
       <c r="H3" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="20.25">
-      <c r="A4" s="118" t="s">
-        <v>478</v>
-      </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
+      <c r="A4" s="127" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
       <c r="A5" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="78" t="s">
         <v>385</v>
       </c>
-      <c r="B5" s="78" t="s">
-        <v>386</v>
-      </c>
-      <c r="C5" s="78" t="s">
-        <v>387</v>
-      </c>
       <c r="D5" s="78" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>389</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>391</v>
+      </c>
+      <c r="G5" s="78" t="s">
         <v>392</v>
       </c>
-      <c r="E5" s="78" t="s">
-        <v>391</v>
-      </c>
-      <c r="F5" s="78" t="s">
+      <c r="H5" s="78" t="s">
         <v>393</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="I5" s="78" t="s">
         <v>394</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="J5" s="78" t="s">
         <v>395</v>
-      </c>
-      <c r="I5" s="78" t="s">
-        <v>396</v>
-      </c>
-      <c r="J5" s="78" t="s">
-        <v>397</v>
       </c>
       <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="F6" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="G6" s="102" t="s">
         <v>407</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="H6" s="102" t="s">
         <v>408</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="G6" s="102" t="s">
-        <v>409</v>
-      </c>
-      <c r="H6" s="102" t="s">
-        <v>410</v>
-      </c>
       <c r="I6" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H7" s="106" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -37990,11 +38067,11 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -38006,15 +38083,15 @@
       <c r="K11" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="20.25">
-      <c r="A13" s="117" t="s">
-        <v>398</v>
-      </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
+      <c r="A13" s="126" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -38033,8 +38110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5"/>
@@ -38116,24 +38193,24 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="120" t="s">
-        <v>415</v>
-      </c>
-      <c r="B9" s="120" t="s">
+    <row r="9" spans="1:4" ht="27">
+      <c r="A9" s="135" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="129" t="s">
         <v>183</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="120"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
+    <row r="10" spans="1:4" ht="27">
+      <c r="A10" s="135"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="129"/>
       <c r="D10" s="47" t="s">
         <v>344</v>
       </c>
@@ -38143,10 +38220,10 @@
         <v>162</v>
       </c>
       <c r="B11" s="72" t="s">
+        <v>447</v>
+      </c>
+      <c r="C11" s="73" t="s">
         <v>449</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>451</v>
       </c>
       <c r="D11" s="73" t="s">
         <v>159</v>
@@ -38157,10 +38234,10 @@
         <v>158</v>
       </c>
       <c r="B12" s="72" t="s">
+        <v>448</v>
+      </c>
+      <c r="C12" s="73" t="s">
         <v>450</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>452</v>
       </c>
       <c r="D12" s="73" t="s">
         <v>155</v>
@@ -38192,11 +38269,11 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="132" t="s">
         <v>181</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>180</v>
@@ -38206,9 +38283,9 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="123"/>
+      <c r="A17" s="133"/>
       <c r="B17" s="86" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>178</v>
@@ -38218,9 +38295,9 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="123"/>
+      <c r="A18" s="133"/>
       <c r="B18" s="47" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>176</v>
@@ -38230,9 +38307,9 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="123"/>
+      <c r="A19" s="133"/>
       <c r="B19" s="47" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>174</v>
@@ -38241,65 +38318,65 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="123"/>
-      <c r="B20" s="121" t="s">
-        <v>445</v>
+    <row r="20" spans="1:4" ht="27">
+      <c r="A20" s="133"/>
+      <c r="B20" s="129" t="s">
+        <v>443</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="121" t="s">
+      <c r="D20" s="129" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="123"/>
-      <c r="B21" s="121"/>
+      <c r="A21" s="133"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="121"/>
+      <c r="D21" s="129"/>
     </row>
-    <row r="22" spans="1:4" ht="28.5">
-      <c r="A22" s="123"/>
-      <c r="B22" s="121" t="s">
-        <v>446</v>
+    <row r="22" spans="1:4" ht="27">
+      <c r="A22" s="133"/>
+      <c r="B22" s="129" t="s">
+        <v>444</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="121" t="s">
+      <c r="D22" s="129" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="123"/>
-      <c r="B23" s="121"/>
+      <c r="A23" s="133"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="121"/>
+      <c r="D23" s="129"/>
     </row>
-    <row r="24" spans="1:4" ht="28.5">
-      <c r="A24" s="123"/>
-      <c r="B24" s="121" t="s">
+    <row r="24" spans="1:4" ht="27">
+      <c r="A24" s="133"/>
+      <c r="B24" s="129" t="s">
         <v>166</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="121" t="s">
+      <c r="D24" s="129" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="124"/>
-      <c r="B25" s="121"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="121"/>
+      <c r="D25" s="129"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="56"/>
@@ -38390,25 +38467,25 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="121" t="s">
+      <c r="A36" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="121" t="s">
+      <c r="B36" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="125" t="s">
+      <c r="C36" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="126"/>
+      <c r="D36" s="131"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="121"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="126"/>
+      <c r="A37" s="129"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="131"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="121"/>
+      <c r="A38" s="129"/>
       <c r="B38" s="47" t="s">
         <v>146</v>
       </c>
@@ -38418,7 +38495,7 @@
       <c r="D38" s="49"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="121"/>
+      <c r="A39" s="129"/>
       <c r="B39" s="47" t="s">
         <v>144</v>
       </c>
@@ -38428,7 +38505,7 @@
       <c r="D39" s="49"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="121"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="53" t="s">
         <v>142</v>
       </c>
@@ -38438,13 +38515,13 @@
       <c r="D40" s="49"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="121"/>
+      <c r="A41" s="129"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="49"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="121"/>
+      <c r="A42" s="129"/>
       <c r="B42" s="50" t="s">
         <v>140</v>
       </c>
@@ -38454,7 +38531,7 @@
       <c r="D42" s="49"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="121"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="50" t="s">
         <v>139</v>
       </c>
@@ -38464,17 +38541,19 @@
       <c r="D43" s="49"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="121"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="47" t="s">
-        <v>349</v>
+        <v>499</v>
       </c>
       <c r="C44" s="70" t="s">
-        <v>348</v>
-      </c>
-      <c r="D44" s="49"/>
+        <v>498</v>
+      </c>
+      <c r="D44" s="155" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="121"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="47" t="s">
         <v>138</v>
       </c>
@@ -38484,7 +38563,7 @@
       <c r="D45" s="49"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="121"/>
+      <c r="A46" s="129"/>
       <c r="B46" s="47" t="s">
         <v>136</v>
       </c>
@@ -38494,13 +38573,13 @@
       <c r="D46" s="49"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="121"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="49"/>
       <c r="C47" s="49"/>
       <c r="D47" s="49"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="121"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="50" t="s">
         <v>134</v>
       </c>
@@ -38508,11 +38587,11 @@
         <v>133</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="121"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="75" t="s">
         <v>132</v>
       </c>
@@ -38520,11 +38599,11 @@
         <v>131</v>
       </c>
       <c r="D49" s="74" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="121"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="50" t="s">
         <v>130</v>
       </c>
@@ -38534,7 +38613,7 @@
       <c r="D50" s="49"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="121"/>
+      <c r="A51" s="129"/>
       <c r="B51" s="50" t="s">
         <v>128</v>
       </c>
@@ -38558,7 +38637,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="122" t="s">
+      <c r="A55" s="132" t="s">
         <v>122</v>
       </c>
       <c r="B55" s="47" t="s">
@@ -38572,43 +38651,43 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="123"/>
+      <c r="A56" s="133"/>
       <c r="B56" s="75" t="s">
         <v>118</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D56" s="74" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="123"/>
+      <c r="A57" s="133"/>
       <c r="B57" s="47" t="s">
         <v>116</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D57" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="123"/>
+      <c r="A58" s="133"/>
       <c r="B58" s="47" t="s">
         <v>115</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D58" s="47" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="124"/>
+      <c r="A59" s="134"/>
       <c r="B59" s="47" t="s">
         <v>113</v>
       </c>
@@ -38621,11 +38700,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A36:A51"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -38636,6 +38710,11 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A36:A51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38647,8 +38726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -38670,10 +38749,10 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="136" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="139" t="s">
         <v>339</v>
       </c>
       <c r="C2" s="84" t="s">
@@ -38683,12 +38762,12 @@
         <v>336</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" customHeight="1">
-      <c r="A3" s="135"/>
-      <c r="B3" s="133"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="18" t="s">
         <v>335</v>
       </c>
@@ -38696,12 +38775,12 @@
         <v>334</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="135"/>
-      <c r="B4" s="133"/>
+    <row r="4" spans="1:8" ht="42.75">
+      <c r="A4" s="137"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="5" t="s">
         <v>333</v>
       </c>
@@ -38709,12 +38788,12 @@
         <v>332</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="60">
-      <c r="A5" s="135"/>
-      <c r="B5" s="133"/>
+    <row r="5" spans="1:8" ht="57">
+      <c r="A5" s="137"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="5" t="s">
         <v>331</v>
       </c>
@@ -38722,12 +38801,12 @@
         <v>330</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="135"/>
-      <c r="B6" s="133"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="5" t="s">
         <v>329</v>
       </c>
@@ -38737,81 +38816,81 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A7" s="135"/>
-      <c r="B7" s="133"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="91" t="s">
         <v>338</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="86.25" customHeight="1">
-      <c r="A8" s="135"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="94" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="95" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E8" s="96" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45">
-      <c r="A9" s="135"/>
-      <c r="B9" s="133" t="s">
+    <row r="9" spans="1:8" ht="42.75">
+      <c r="A9" s="137"/>
+      <c r="B9" s="139" t="s">
         <v>327</v>
       </c>
       <c r="C9" s="84" t="s">
         <v>326</v>
       </c>
       <c r="D9" s="85" t="s">
+        <v>361</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>363</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>365</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="60">
-      <c r="A10" s="135"/>
-      <c r="B10" s="133"/>
+    <row r="10" spans="1:8" ht="57">
+      <c r="A10" s="137"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="80" t="s">
+        <v>417</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>419</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>357</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>421</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="60">
-      <c r="A11" s="135"/>
-      <c r="B11" s="133"/>
+    <row r="11" spans="1:8" ht="57">
+      <c r="A11" s="137"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="84" t="s">
         <v>325</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="135"/>
-      <c r="B12" s="133"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="4" t="s">
         <v>324</v>
       </c>
@@ -38823,8 +38902,8 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="135"/>
-      <c r="B13" s="133"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
@@ -38836,8 +38915,8 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="135"/>
-      <c r="B14" s="133"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="84" t="s">
         <v>321</v>
       </c>
@@ -38845,14 +38924,14 @@
         <v>320</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="30">
-      <c r="A15" s="135"/>
-      <c r="B15" s="133"/>
+    <row r="15" spans="1:8" ht="28.5">
+      <c r="A15" s="137"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="84" t="s">
         <v>9</v>
       </c>
@@ -38860,14 +38939,14 @@
         <v>312</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="135"/>
-      <c r="B16" s="133"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="5" t="s">
         <v>319</v>
       </c>
@@ -38879,8 +38958,8 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="135"/>
-      <c r="B17" s="133"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="4" t="s">
         <v>317</v>
       </c>
@@ -38890,8 +38969,8 @@
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="135"/>
-      <c r="B18" s="133"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="5" t="s">
         <v>315</v>
       </c>
@@ -38903,58 +38982,58 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="135"/>
-      <c r="B19" s="133"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="7" t="s">
         <v>311</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="135"/>
-      <c r="B20" s="133"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="7" t="s">
         <v>310</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="135"/>
-      <c r="B21" s="133"/>
+    <row r="21" spans="1:5" ht="28.5">
+      <c r="A21" s="137"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="60">
-      <c r="A22" s="135"/>
-      <c r="B22" s="132" t="s">
-        <v>447</v>
+    <row r="22" spans="1:5" ht="57">
+      <c r="A22" s="137"/>
+      <c r="B22" s="140" t="s">
+        <v>445</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>308</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="135"/>
-      <c r="B23" s="133"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="5" t="s">
         <v>307</v>
       </c>
@@ -38965,9 +39044,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30">
-      <c r="A24" s="135"/>
-      <c r="B24" s="133"/>
+    <row r="24" spans="1:5" ht="28.5">
+      <c r="A24" s="137"/>
+      <c r="B24" s="139"/>
       <c r="C24" s="5" t="s">
         <v>304</v>
       </c>
@@ -38978,9 +39057,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="60">
-      <c r="A25" s="136"/>
-      <c r="B25" s="133"/>
+    <row r="25" spans="1:5" ht="57">
+      <c r="A25" s="138"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="84" t="s">
         <v>301</v>
       </c>
@@ -38988,7 +39067,7 @@
         <v>300</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -39007,11 +39086,11 @@
       <c r="D27" s="25"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="75">
-      <c r="A28" s="132" t="s">
+    <row r="28" spans="1:5" ht="71.25">
+      <c r="A28" s="140" t="s">
         <v>298</v>
       </c>
-      <c r="B28" s="132" t="s">
+      <c r="B28" s="140" t="s">
         <v>297</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -39021,12 +39100,12 @@
         <v>295</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="120">
-      <c r="A29" s="133"/>
-      <c r="B29" s="133"/>
+    <row r="29" spans="1:5" ht="114">
+      <c r="A29" s="139"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="5" t="s">
         <v>294</v>
       </c>
@@ -39034,12 +39113,12 @@
         <v>293</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="90">
-      <c r="A30" s="133"/>
-      <c r="B30" s="133"/>
+    <row r="30" spans="1:5" ht="85.5">
+      <c r="A30" s="139"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="5" t="s">
         <v>292</v>
       </c>
@@ -39047,78 +39126,78 @@
         <v>291</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="133"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="130" t="s">
+      <c r="A31" s="139"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="144" t="s">
         <v>290</v>
       </c>
-      <c r="D31" s="131" t="s">
+      <c r="D31" s="145" t="s">
         <v>289</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="45">
-      <c r="A32" s="133"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="131"/>
+    <row r="32" spans="1:5" ht="42.75">
+      <c r="A32" s="139"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="145"/>
       <c r="E32" s="59" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="133"/>
-      <c r="B33" s="133"/>
+      <c r="A33" s="139"/>
+      <c r="B33" s="139"/>
       <c r="C33" s="5" t="s">
         <v>288</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="133"/>
-      <c r="B34" s="133"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="139"/>
       <c r="C34" s="5" t="s">
         <v>287</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="133"/>
-      <c r="B35" s="133"/>
+      <c r="A35" s="139"/>
+      <c r="B35" s="139"/>
       <c r="C35" s="5" t="s">
         <v>286</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="133"/>
-      <c r="B36" s="133"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="139"/>
       <c r="C36" s="5" t="s">
         <v>285</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="120">
-      <c r="A37" s="133"/>
-      <c r="B37" s="133"/>
+    <row r="37" spans="1:5" ht="114">
+      <c r="A37" s="139"/>
+      <c r="B37" s="139"/>
       <c r="C37" s="18" t="s">
         <v>284</v>
       </c>
@@ -39126,12 +39205,12 @@
         <v>283</v>
       </c>
       <c r="E37" s="59" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="45">
-      <c r="A38" s="133"/>
-      <c r="B38" s="133"/>
+    <row r="38" spans="1:5" ht="42.75">
+      <c r="A38" s="139"/>
+      <c r="B38" s="139"/>
       <c r="C38" s="18" t="s">
         <v>277</v>
       </c>
@@ -39143,8 +39222,8 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="133"/>
-      <c r="B39" s="133"/>
+      <c r="A39" s="139"/>
+      <c r="B39" s="139"/>
       <c r="C39" s="5" t="s">
         <v>282</v>
       </c>
@@ -39154,30 +39233,30 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="133"/>
-      <c r="B40" s="133"/>
+      <c r="A40" s="139"/>
+      <c r="B40" s="139"/>
       <c r="C40" s="5" t="s">
         <v>280</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" ht="60">
-      <c r="A41" s="133"/>
-      <c r="B41" s="133"/>
+    <row r="41" spans="1:5" ht="57">
+      <c r="A41" s="139"/>
+      <c r="B41" s="139"/>
       <c r="C41" s="18" t="s">
         <v>279</v>
       </c>
       <c r="D41" s="60" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E41" s="59" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="133"/>
-      <c r="B42" s="133"/>
+      <c r="A42" s="139"/>
+      <c r="B42" s="139"/>
       <c r="C42" s="5" t="s">
         <v>274</v>
       </c>
@@ -39187,9 +39266,9 @@
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="133"/>
-      <c r="B43" s="132" t="s">
-        <v>428</v>
+      <c r="A43" s="139"/>
+      <c r="B43" s="140" t="s">
+        <v>426</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>272</v>
@@ -39200,8 +39279,8 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="133"/>
-      <c r="B44" s="133"/>
+      <c r="A44" s="139"/>
+      <c r="B44" s="139"/>
       <c r="C44" s="5" t="s">
         <v>270</v>
       </c>
@@ -39211,8 +39290,8 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="133"/>
-      <c r="B45" s="133"/>
+      <c r="A45" s="139"/>
+      <c r="B45" s="139"/>
       <c r="C45" s="5" t="s">
         <v>268</v>
       </c>
@@ -39222,8 +39301,8 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="133"/>
-      <c r="B46" s="133"/>
+      <c r="A46" s="139"/>
+      <c r="B46" s="139"/>
       <c r="C46" s="5" t="s">
         <v>266</v>
       </c>
@@ -39232,9 +39311,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="45">
-      <c r="A47" s="133"/>
-      <c r="B47" s="133"/>
+    <row r="47" spans="1:5" ht="42.75">
+      <c r="A47" s="139"/>
+      <c r="B47" s="139"/>
       <c r="C47" s="16" t="s">
         <v>264</v>
       </c>
@@ -39244,9 +39323,9 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="133"/>
-      <c r="B48" s="132" t="s">
-        <v>429</v>
+      <c r="A48" s="139"/>
+      <c r="B48" s="140" t="s">
+        <v>427</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>4</v>
@@ -39257,8 +39336,8 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="133"/>
-      <c r="B49" s="133"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="139"/>
       <c r="C49" s="5" t="s">
         <v>5</v>
       </c>
@@ -39268,8 +39347,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="133"/>
-      <c r="B50" s="133"/>
+      <c r="A50" s="139"/>
+      <c r="B50" s="139"/>
       <c r="C50" s="5" t="s">
         <v>6</v>
       </c>
@@ -39279,8 +39358,8 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="133"/>
-      <c r="B51" s="133"/>
+      <c r="A51" s="139"/>
+      <c r="B51" s="139"/>
       <c r="C51" s="5" t="s">
         <v>7</v>
       </c>
@@ -39289,9 +39368,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="45">
-      <c r="A52" s="133"/>
-      <c r="B52" s="133"/>
+    <row r="52" spans="1:5" ht="42.75">
+      <c r="A52" s="139"/>
+      <c r="B52" s="139"/>
       <c r="C52" s="16" t="s">
         <v>258</v>
       </c>
@@ -39300,10 +39379,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="133"/>
-      <c r="B53" s="132" t="s">
-        <v>416</v>
+    <row r="53" spans="1:5" ht="28.5">
+      <c r="A53" s="139"/>
+      <c r="B53" s="140" t="s">
+        <v>414</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>256</v>
@@ -39316,8 +39395,8 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="133"/>
-      <c r="B54" s="133"/>
+      <c r="A54" s="139"/>
+      <c r="B54" s="139"/>
       <c r="C54" s="16" t="s">
         <v>253</v>
       </c>
@@ -39329,8 +39408,8 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="133"/>
-      <c r="B55" s="133"/>
+      <c r="A55" s="139"/>
+      <c r="B55" s="139"/>
       <c r="C55" s="5" t="s">
         <v>250</v>
       </c>
@@ -39339,10 +39418,10 @@
       </c>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="133"/>
-      <c r="B56" s="132" t="s">
-        <v>417</v>
+    <row r="56" spans="1:5" ht="28.5">
+      <c r="A56" s="139"/>
+      <c r="B56" s="140" t="s">
+        <v>415</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>248</v>
@@ -39355,8 +39434,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="133"/>
-      <c r="B57" s="133"/>
+      <c r="A57" s="139"/>
+      <c r="B57" s="139"/>
       <c r="C57" s="16" t="s">
         <v>245</v>
       </c>
@@ -39368,8 +39447,8 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="133"/>
-      <c r="B58" s="133"/>
+      <c r="A58" s="139"/>
+      <c r="B58" s="139"/>
       <c r="C58" s="5" t="s">
         <v>242</v>
       </c>
@@ -39385,37 +39464,37 @@
       <c r="D59" s="22"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="105">
-      <c r="A60" s="137" t="s">
+    <row r="60" spans="1:5" ht="99.75">
+      <c r="A60" s="136" t="s">
         <v>240</v>
       </c>
-      <c r="B60" s="140" t="s">
+      <c r="B60" s="149" t="s">
         <v>239</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>238</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="138"/>
-      <c r="B61" s="141"/>
+      <c r="A61" s="147"/>
+      <c r="B61" s="150"/>
       <c r="C61" s="18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E61" s="19"/>
     </row>
-    <row r="62" spans="1:5" ht="60">
-      <c r="A62" s="135"/>
-      <c r="B62" s="139" t="s">
+    <row r="62" spans="1:5" ht="57">
+      <c r="A62" s="137"/>
+      <c r="B62" s="148" t="s">
         <v>236</v>
       </c>
       <c r="C62" s="84" t="s">
@@ -39425,25 +39504,25 @@
         <v>234</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="45">
-      <c r="A63" s="135"/>
-      <c r="B63" s="139"/>
+    <row r="63" spans="1:5" ht="42.75">
+      <c r="A63" s="137"/>
+      <c r="B63" s="148"/>
       <c r="C63" s="5" t="s">
         <v>220</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="45">
-      <c r="A64" s="135"/>
-      <c r="B64" s="139"/>
+    <row r="64" spans="1:5" ht="42.75">
+      <c r="A64" s="137"/>
+      <c r="B64" s="148"/>
       <c r="C64" s="5" t="s">
         <v>233</v>
       </c>
@@ -39454,9 +39533,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="60">
-      <c r="A65" s="135"/>
-      <c r="B65" s="139"/>
+    <row r="65" spans="1:5" ht="57">
+      <c r="A65" s="137"/>
+      <c r="B65" s="148"/>
       <c r="C65" s="5" t="s">
         <v>222</v>
       </c>
@@ -39464,12 +39543,12 @@
         <v>221</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="45">
-      <c r="A66" s="135"/>
-      <c r="B66" s="139"/>
+    <row r="66" spans="1:5" ht="42.75">
+      <c r="A66" s="137"/>
+      <c r="B66" s="148"/>
       <c r="C66" s="82" t="s">
         <v>230</v>
       </c>
@@ -39480,9 +39559,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="45">
-      <c r="A67" s="135"/>
-      <c r="B67" s="139"/>
+    <row r="67" spans="1:5" ht="42.75">
+      <c r="A67" s="137"/>
+      <c r="B67" s="148"/>
       <c r="C67" s="98" t="s">
         <v>227</v>
       </c>
@@ -39490,12 +39569,12 @@
         <v>226</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="60">
-      <c r="A68" s="135"/>
-      <c r="B68" s="139"/>
+    <row r="68" spans="1:5" ht="57">
+      <c r="A68" s="137"/>
+      <c r="B68" s="148"/>
       <c r="C68" s="82" t="s">
         <v>225</v>
       </c>
@@ -39506,30 +39585,30 @@
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30">
-      <c r="A69" s="135"/>
-      <c r="B69" s="139"/>
+    <row r="69" spans="1:5" ht="28.5">
+      <c r="A69" s="137"/>
+      <c r="B69" s="148"/>
       <c r="C69" s="82" t="s">
         <v>218</v>
       </c>
       <c r="D69" s="83" t="s">
+        <v>373</v>
+      </c>
+      <c r="E69" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="E69" s="33" t="s">
-        <v>377</v>
-      </c>
     </row>
-    <row r="70" spans="1:5" ht="75">
-      <c r="A70" s="136"/>
-      <c r="B70" s="139"/>
+    <row r="70" spans="1:5" ht="71.25">
+      <c r="A70" s="138"/>
+      <c r="B70" s="148"/>
       <c r="C70" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D70" s="34" t="s">
         <v>217</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -39546,11 +39625,11 @@
       <c r="D72" s="28"/>
       <c r="E72" s="13"/>
     </row>
-    <row r="73" spans="1:5" ht="60">
-      <c r="A73" s="127" t="s">
+    <row r="73" spans="1:5" ht="57">
+      <c r="A73" s="141" t="s">
         <v>216</v>
       </c>
-      <c r="B73" s="134" t="s">
+      <c r="B73" s="146" t="s">
         <v>215</v>
       </c>
       <c r="C73" s="31" t="s">
@@ -39560,38 +39639,38 @@
         <v>212</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="128"/>
-      <c r="B74" s="135"/>
+      <c r="A74" s="142"/>
+      <c r="B74" s="137"/>
       <c r="C74" s="31" t="s">
         <v>211</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="45">
-      <c r="A75" s="128"/>
-      <c r="B75" s="135"/>
+    <row r="75" spans="1:5" ht="42.75">
+      <c r="A75" s="142"/>
+      <c r="B75" s="137"/>
       <c r="C75" s="31" t="s">
         <v>214</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="90">
-      <c r="A76" s="128"/>
-      <c r="B76" s="135"/>
+    <row r="76" spans="1:5" ht="85.5">
+      <c r="A76" s="142"/>
+      <c r="B76" s="137"/>
       <c r="C76" s="31" t="s">
         <v>210</v>
       </c>
@@ -39599,12 +39678,12 @@
         <v>209</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="45">
-      <c r="A77" s="128"/>
-      <c r="B77" s="135"/>
+    <row r="77" spans="1:5" ht="42.75">
+      <c r="A77" s="142"/>
+      <c r="B77" s="137"/>
       <c r="C77" s="4" t="s">
         <v>208</v>
       </c>
@@ -39612,12 +39691,12 @@
         <v>207</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="128"/>
-      <c r="B78" s="135"/>
+      <c r="A78" s="142"/>
+      <c r="B78" s="137"/>
       <c r="C78" s="4" t="s">
         <v>206</v>
       </c>
@@ -39626,35 +39705,35 @@
       </c>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" ht="60">
-      <c r="A79" s="128"/>
-      <c r="B79" s="135"/>
+    <row r="79" spans="1:5" ht="57">
+      <c r="A79" s="142"/>
+      <c r="B79" s="137"/>
       <c r="C79" s="30" t="s">
         <v>204</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E79" s="33" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="45">
-      <c r="A80" s="128"/>
-      <c r="B80" s="135"/>
+    <row r="80" spans="1:5" ht="42.75">
+      <c r="A80" s="142"/>
+      <c r="B80" s="137"/>
       <c r="C80" s="31" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="128"/>
-      <c r="B81" s="135"/>
+      <c r="A81" s="142"/>
+      <c r="B81" s="137"/>
       <c r="C81" s="30" t="s">
         <v>202</v>
       </c>
@@ -39663,9 +39742,9 @@
       </c>
       <c r="E81" s="31"/>
     </row>
-    <row r="82" spans="1:5" ht="60">
-      <c r="A82" s="129"/>
-      <c r="B82" s="136"/>
+    <row r="82" spans="1:5" ht="57">
+      <c r="A82" s="143"/>
+      <c r="B82" s="138"/>
       <c r="C82" s="4" t="s">
         <v>200</v>
       </c>
@@ -39678,13 +39757,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -39695,6 +39767,13 @@
     <mergeCell ref="A60:A70"/>
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39730,7 +39809,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="154" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="100" t="s">
@@ -39741,7 +39820,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25">
-      <c r="A3" s="143"/>
+      <c r="A3" s="154"/>
       <c r="B3" s="97" t="s">
         <v>19</v>
       </c>
@@ -39750,7 +39829,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="154" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="100" t="s">
@@ -39761,7 +39840,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5">
-      <c r="A5" s="143"/>
+      <c r="A5" s="154"/>
       <c r="B5" s="44" t="s">
         <v>25</v>
       </c>
@@ -39770,7 +39849,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5">
-      <c r="A6" s="143"/>
+      <c r="A6" s="154"/>
       <c r="B6" s="100" t="s">
         <v>27</v>
       </c>
@@ -39779,7 +39858,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5">
-      <c r="A7" s="143"/>
+      <c r="A7" s="154"/>
       <c r="B7" s="44" t="s">
         <v>22</v>
       </c>
@@ -39788,7 +39867,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="154" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="44" t="s">
@@ -39799,7 +39878,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25">
-      <c r="A9" s="143"/>
+      <c r="A9" s="154"/>
       <c r="B9" s="100" t="s">
         <v>34</v>
       </c>
@@ -39808,7 +39887,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5">
-      <c r="A10" s="143"/>
+      <c r="A10" s="154"/>
       <c r="B10" s="44" t="s">
         <v>31</v>
       </c>
@@ -39817,25 +39896,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="151" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="144" t="s">
+      <c r="C11" s="151" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1">
-      <c r="A12" s="145"/>
+      <c r="A12" s="152"/>
       <c r="B12" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="145"/>
+      <c r="C12" s="152"/>
     </row>
     <row r="13" spans="1:3" ht="17.25">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="153" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="44" t="s">
@@ -39846,7 +39925,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
-      <c r="A14" s="142"/>
+      <c r="A14" s="153"/>
       <c r="B14" s="44" t="s">
         <v>44</v>
       </c>
@@ -39855,7 +39934,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25">
-      <c r="A15" s="142"/>
+      <c r="A15" s="153"/>
       <c r="B15" s="44" t="s">
         <v>46</v>
       </c>
@@ -39864,7 +39943,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5">
-      <c r="A16" s="142"/>
+      <c r="A16" s="153"/>
       <c r="B16" s="44" t="s">
         <v>48</v>
       </c>
@@ -39873,7 +39952,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5">
-      <c r="A17" s="142"/>
+      <c r="A17" s="153"/>
       <c r="B17" s="44" t="s">
         <v>41</v>
       </c>
@@ -39882,7 +39961,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
-      <c r="A18" s="142" t="s">
+      <c r="A18" s="153" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="44" t="s">
@@ -39893,7 +39972,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25">
-      <c r="A19" s="142"/>
+      <c r="A19" s="153"/>
       <c r="B19" s="44" t="s">
         <v>42</v>
       </c>
@@ -39902,7 +39981,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25">
-      <c r="A20" s="142"/>
+      <c r="A20" s="153"/>
       <c r="B20" s="44" t="s">
         <v>44</v>
       </c>
@@ -39911,7 +39990,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
-      <c r="A21" s="142"/>
+      <c r="A21" s="153"/>
       <c r="B21" s="44" t="s">
         <v>46</v>
       </c>
@@ -39920,7 +39999,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75">
-      <c r="A22" s="142"/>
+      <c r="A22" s="153"/>
       <c r="B22" s="44" t="s">
         <v>52</v>
       </c>
@@ -39929,7 +40008,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5">
-      <c r="A23" s="142" t="s">
+      <c r="A23" s="153" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="44" t="s">
@@ -39940,42 +40019,42 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25">
-      <c r="A24" s="142"/>
+      <c r="A24" s="153"/>
       <c r="B24" s="44" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3" ht="17.25">
-      <c r="A25" s="142"/>
+      <c r="A25" s="153"/>
       <c r="B25" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:3" ht="17.25">
-      <c r="A26" s="142"/>
+      <c r="A26" s="153"/>
       <c r="B26" s="44" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:3" ht="17.25">
-      <c r="A27" s="142"/>
+      <c r="A27" s="153"/>
       <c r="B27" s="44" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="21"/>
     </row>
     <row r="28" spans="1:3" ht="17.25">
-      <c r="A28" s="142"/>
+      <c r="A28" s="153"/>
       <c r="B28" s="44" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" ht="17.25">
-      <c r="A29" s="142" t="s">
+      <c r="A29" s="153" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="44" t="s">
@@ -39984,35 +40063,35 @@
       <c r="C29" s="21"/>
     </row>
     <row r="30" spans="1:3" ht="17.25">
-      <c r="A30" s="142"/>
+      <c r="A30" s="153"/>
       <c r="B30" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:3" ht="17.25">
-      <c r="A31" s="142"/>
+      <c r="A31" s="153"/>
       <c r="B31" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="21"/>
     </row>
     <row r="32" spans="1:3" ht="17.25">
-      <c r="A32" s="142"/>
+      <c r="A32" s="153"/>
       <c r="B32" s="44" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3" ht="17.25">
-      <c r="A33" s="142"/>
+      <c r="A33" s="153"/>
       <c r="B33" s="44" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="142"/>
+      <c r="A34" s="153"/>
       <c r="B34" s="44" t="s">
         <v>41</v>
       </c>
@@ -40030,7 +40109,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5">
-      <c r="A36" s="142" t="s">
+      <c r="A36" s="153" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="44" t="s">
@@ -40041,7 +40120,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5">
-      <c r="A37" s="142"/>
+      <c r="A37" s="153"/>
       <c r="B37" s="44" t="s">
         <v>70</v>
       </c>
@@ -40050,7 +40129,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5">
-      <c r="A38" s="142"/>
+      <c r="A38" s="153"/>
       <c r="B38" s="44" t="s">
         <v>71</v>
       </c>
@@ -40060,16 +40139,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/st00.docs/html&css정리-220521.xlsx
+++ b/st00.docs/html&css정리-220521.xlsx
@@ -62,9 +62,6 @@
     <t>direction</t>
   </si>
   <si>
-    <t>text-indent</t>
-  </si>
-  <si>
     <t>a:visited</t>
   </si>
   <si>
@@ -470,72 +467,16 @@
     <t>::first-line</t>
   </si>
   <si>
-    <t>해당 요소의 뒤에 스타일 적용</t>
-  </si>
-  <si>
     <t xml:space="preserve">::after </t>
   </si>
   <si>
-    <t>해당 요소의 앞에 스타일 적용</t>
-  </si>
-  <si>
     <t>::before</t>
   </si>
   <si>
     <t>짝수</t>
   </si>
   <si>
-    <r>
-      <t>:nth-child(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>even</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>홀수</t>
-  </si>
-  <si>
-    <r>
-      <t>:nth-child(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>odd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>:last-child</t>
@@ -822,15 +763,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>왼쪽이나 오른쪽에 배치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1243,14 +1176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">word-spacing </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>letter-spacing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">글자의 줄바꿈 처리 방법 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1296,10 +1221,6 @@
   </si>
   <si>
     <t>단어 사이 간격 조절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text-justify</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2052,30 +1973,6 @@
     <t>font-size:12px;
 font-size:50%;
 font-size:2em;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>div</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="나눔고딕코딩"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>::after { clear:both; display:block; content:''; }</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2923,6 +2820,114 @@
         <charset val="129"/>
       </rPr>
       <t>공식</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-indent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text-justify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>letter-spacing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">word-spacing </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 요소(태그)의 뒤(닫는 요소)에 스타일 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 요소(태그)의 앞에 스타일 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>::after { clear:both; display:block; content:''; }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>:nth-child(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>even</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>:nth-child(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>odd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="나눔고딕코딩"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3686,26 +3691,8 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3740,6 +3727,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3749,14 +3757,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -3767,23 +3772,11 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3800,8 +3793,23 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3815,20 +3823,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4694,7 +4699,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26.25">
       <c r="A1" s="101" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -4718,136 +4723,136 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="115" t="s">
-        <v>463</v>
-      </c>
-      <c r="B4" s="115"/>
+      <c r="A4" s="109" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" s="109"/>
       <c r="C4" s="14" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="102" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="117"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="66">
-      <c r="A15" s="117"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="118"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="14" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="66">
-      <c r="A17" s="119" t="s">
-        <v>468</v>
+      <c r="A17" s="113" t="s">
+        <v>457</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="66" hidden="1">
-      <c r="A18" s="121"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="132">
@@ -4855,21 +4860,21 @@
         <v>1</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="49.5">
       <c r="A20" s="89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="87" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="33">
@@ -4877,30 +4882,30 @@
         <v>2</v>
       </c>
       <c r="B21" s="87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="49.5">
-      <c r="A22" s="119" t="s">
-        <v>106</v>
+      <c r="A22" s="113" t="s">
+        <v>105</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="33">
-      <c r="A23" s="121"/>
+      <c r="A23" s="115"/>
       <c r="B23" s="88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="88" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="43.5" customHeight="1">
@@ -4908,125 +4913,125 @@
         <v>3</v>
       </c>
       <c r="B24" s="87" t="s">
-        <v>488</v>
-      </c>
-      <c r="C24" s="119" t="s">
-        <v>489</v>
+        <v>477</v>
+      </c>
+      <c r="C24" s="113" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A25" s="123" t="s">
-        <v>482</v>
+      <c r="A25" s="117" t="s">
+        <v>471</v>
       </c>
       <c r="B25" s="87" t="s">
-        <v>485</v>
-      </c>
-      <c r="C25" s="120"/>
+        <v>474</v>
+      </c>
+      <c r="C25" s="114"/>
     </row>
     <row r="26" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A26" s="124"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="87" t="s">
-        <v>486</v>
-      </c>
-      <c r="C26" s="120"/>
+        <v>475</v>
+      </c>
+      <c r="C26" s="114"/>
     </row>
     <row r="27" spans="1:7" ht="85.5" customHeight="1">
-      <c r="A27" s="125"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="87" t="s">
-        <v>487</v>
-      </c>
-      <c r="C27" s="121"/>
+        <v>476</v>
+      </c>
+      <c r="C27" s="115"/>
       <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="116" t="s">
-        <v>438</v>
+      <c r="A28" s="110" t="s">
+        <v>428</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" ht="33">
-      <c r="A29" s="117"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="33">
-      <c r="A30" s="118"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="122" t="s">
-        <v>107</v>
+      <c r="A31" s="116" t="s">
+        <v>106</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="117"/>
+      <c r="A32" s="111"/>
       <c r="B32" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:16384">
-      <c r="A33" s="117"/>
+      <c r="A33" s="111"/>
       <c r="B33" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:16384">
-      <c r="A34" s="117"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:16384">
-      <c r="A35" s="117"/>
+      <c r="A35" s="111"/>
       <c r="B35" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:16384">
-      <c r="A36" s="118"/>
+      <c r="A36" s="112"/>
       <c r="B36" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:16384">
       <c r="A38" s="103" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="104"/>
@@ -21413,10 +21418,10 @@
       <c r="XFD38" s="105"/>
     </row>
     <row r="39" spans="1:16384">
-      <c r="A39" s="113" t="s">
-        <v>472</v>
-      </c>
-      <c r="B39" s="114"/>
+      <c r="A39" s="125" t="s">
+        <v>461</v>
+      </c>
+      <c r="B39" s="126"/>
       <c r="C39" s="104"/>
       <c r="D39" s="105"/>
       <c r="E39" s="104"/>
@@ -37801,41 +37806,46 @@
       <c r="XFD39" s="105"/>
     </row>
     <row r="41" spans="1:16384">
-      <c r="A41" s="110" t="s">
-        <v>494</v>
-      </c>
-      <c r="B41" s="111"/>
-      <c r="C41" s="112"/>
+      <c r="A41" s="122" t="s">
+        <v>483</v>
+      </c>
+      <c r="B41" s="123"/>
+      <c r="C41" s="124"/>
     </row>
     <row r="42" spans="1:16384">
       <c r="A42" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="B42" s="109" t="s">
-        <v>495</v>
-      </c>
-      <c r="C42" s="109"/>
+        <v>458</v>
+      </c>
+      <c r="B42" s="121" t="s">
+        <v>484</v>
+      </c>
+      <c r="C42" s="121"/>
     </row>
     <row r="43" spans="1:16384">
       <c r="A43" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="B43" s="108" t="s">
-        <v>496</v>
-      </c>
-      <c r="C43" s="108"/>
+        <v>459</v>
+      </c>
+      <c r="B43" s="120" t="s">
+        <v>485</v>
+      </c>
+      <c r="C43" s="120"/>
     </row>
     <row r="44" spans="1:16384">
       <c r="A44" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="B44" s="108" t="s">
-        <v>497</v>
-      </c>
-      <c r="C44" s="108"/>
+        <v>460</v>
+      </c>
+      <c r="B44" s="120" t="s">
+        <v>486</v>
+      </c>
+      <c r="C44" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="C24:C27"/>
@@ -37844,11 +37854,6 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37878,17 +37883,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="26.25">
-      <c r="A2" s="128" t="s">
-        <v>477</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
+      <c r="A2" s="129" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="77"/>
@@ -37901,160 +37906,160 @@
       <c r="H3" s="77"/>
     </row>
     <row r="4" spans="1:11" ht="20.25">
-      <c r="A4" s="127" t="s">
-        <v>476</v>
-      </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
+      <c r="A4" s="128" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
       <c r="A5" s="78" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>380</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>379</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>382</v>
+      </c>
+      <c r="H5" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="I5" s="78" t="s">
         <v>384</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="J5" s="78" t="s">
         <v>385</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>390</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>389</v>
-      </c>
-      <c r="F5" s="78" t="s">
-        <v>391</v>
-      </c>
-      <c r="G5" s="78" t="s">
-        <v>392</v>
-      </c>
-      <c r="H5" s="78" t="s">
-        <v>393</v>
-      </c>
-      <c r="I5" s="78" t="s">
-        <v>394</v>
-      </c>
-      <c r="J5" s="78" t="s">
-        <v>395</v>
       </c>
       <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="G6" s="102" t="s">
         <v>397</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>405</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="G6" s="102" t="s">
-        <v>407</v>
-      </c>
       <c r="H6" s="102" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="14" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="H7" s="106" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="14" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="14" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="14" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -38067,11 +38072,11 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -38083,15 +38088,15 @@
       <c r="K11" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="20.25">
-      <c r="A13" s="126" t="s">
-        <v>396</v>
-      </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
+      <c r="A13" s="127" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -38110,8 +38115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5"/>
@@ -38125,122 +38130,122 @@
   <sheetData>
     <row r="4" spans="1:4">
       <c r="A4" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="66" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="66" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="66" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27">
-      <c r="A9" s="135" t="s">
-        <v>413</v>
-      </c>
-      <c r="B9" s="135" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="129" t="s">
-        <v>183</v>
+      <c r="A9" s="130" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="131" t="s">
+        <v>178</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
-      <c r="A10" s="135"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="129"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="131"/>
       <c r="D10" s="47" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="72" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="72" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D12" s="73" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -38256,127 +38261,127 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="48" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="132" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="133"/>
       <c r="B17" s="86" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="133"/>
       <c r="B18" s="47" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="133"/>
       <c r="B19" s="47" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="27">
       <c r="A20" s="133"/>
-      <c r="B20" s="129" t="s">
-        <v>443</v>
+      <c r="B20" s="131" t="s">
+        <v>433</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="129" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="D20" s="131" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="133"/>
-      <c r="B21" s="129"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="129"/>
+        <v>165</v>
+      </c>
+      <c r="D21" s="131"/>
     </row>
     <row r="22" spans="1:4" ht="27">
       <c r="A22" s="133"/>
-      <c r="B22" s="129" t="s">
-        <v>444</v>
+      <c r="B22" s="131" t="s">
+        <v>434</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="129" t="s">
-        <v>168</v>
+        <v>164</v>
+      </c>
+      <c r="D22" s="131" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="133"/>
-      <c r="B23" s="129"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="129"/>
+        <v>162</v>
+      </c>
+      <c r="D23" s="131"/>
     </row>
     <row r="24" spans="1:4" ht="27">
       <c r="A24" s="133"/>
-      <c r="B24" s="129" t="s">
-        <v>166</v>
+      <c r="B24" s="131" t="s">
+        <v>161</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="129" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="D24" s="131" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="134"/>
-      <c r="B25" s="129"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="129"/>
+        <v>158</v>
+      </c>
+      <c r="D25" s="131"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="56"/>
@@ -38392,314 +38397,319 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="66" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="66" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="47" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="47" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="49"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="48" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="129" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="129" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="130" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="131"/>
+      <c r="A36" s="131" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="135" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="136"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="129"/>
-      <c r="B37" s="129"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="131"/>
+      <c r="A37" s="131"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="136"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="129"/>
+      <c r="A38" s="131"/>
       <c r="B38" s="47" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D38" s="49"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="129"/>
+      <c r="A39" s="131"/>
       <c r="B39" s="47" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D39" s="49"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="129"/>
+      <c r="A40" s="131"/>
       <c r="B40" s="53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D40" s="49"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="129"/>
+      <c r="A41" s="131"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="49"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="129"/>
+      <c r="A42" s="131"/>
       <c r="B42" s="50" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C42" s="70" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D42" s="49"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="129"/>
+      <c r="A43" s="131"/>
       <c r="B43" s="50" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C43" s="70" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D43" s="49"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="129"/>
+      <c r="A44" s="131"/>
       <c r="B44" s="47" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C44" s="70" t="s">
-        <v>498</v>
-      </c>
-      <c r="D44" s="155" t="s">
-        <v>500</v>
+        <v>487</v>
+      </c>
+      <c r="D44" s="108" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="129"/>
+      <c r="A45" s="131"/>
       <c r="B45" s="47" t="s">
-        <v>138</v>
+        <v>500</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D45" s="49"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="129"/>
+      <c r="A46" s="131"/>
       <c r="B46" s="47" t="s">
-        <v>136</v>
+        <v>499</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D46" s="49"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="129"/>
+      <c r="A47" s="131"/>
       <c r="B47" s="49"/>
       <c r="C47" s="49"/>
       <c r="D47" s="49"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="129"/>
+      <c r="A48" s="131"/>
       <c r="B48" s="50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>133</v>
+        <v>497</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="129"/>
+    <row r="49" spans="1:4" ht="27">
+      <c r="A49" s="131"/>
       <c r="B49" s="75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C49" s="74" t="s">
-        <v>131</v>
+        <v>496</v>
       </c>
       <c r="D49" s="74" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="129"/>
+      <c r="A50" s="131"/>
       <c r="B50" s="50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50" s="49"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="129"/>
+      <c r="A51" s="131"/>
       <c r="B51" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D51" s="49"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D55" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="133"/>
       <c r="B56" s="75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D56" s="74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="133"/>
       <c r="B57" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="133"/>
       <c r="B58" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="134"/>
       <c r="B59" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A36:A51"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -38710,11 +38720,6 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A36:A51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38726,8 +38731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C32"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -38749,325 +38754,325 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1">
-      <c r="A2" s="136" t="s">
-        <v>340</v>
-      </c>
-      <c r="B2" s="139" t="s">
+      <c r="A2" s="147" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="143" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>339</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>336</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" customHeight="1">
-      <c r="A3" s="137"/>
-      <c r="B3" s="139"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="143"/>
       <c r="C3" s="18" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42.75">
-      <c r="A4" s="137"/>
-      <c r="B4" s="139"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="143"/>
       <c r="C4" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57">
-      <c r="A5" s="137"/>
-      <c r="B5" s="139"/>
+      <c r="A5" s="145"/>
+      <c r="B5" s="143"/>
       <c r="C5" s="5" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="137"/>
-      <c r="B6" s="139"/>
+      <c r="A6" s="145"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="5" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A7" s="137"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="145"/>
+      <c r="B7" s="143"/>
       <c r="C7" s="91" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="86.25" customHeight="1">
-      <c r="A8" s="137"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="145"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="94" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="95" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E8" s="96" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42.75">
-      <c r="A9" s="137"/>
-      <c r="B9" s="139" t="s">
-        <v>327</v>
+      <c r="A9" s="145"/>
+      <c r="B9" s="143" t="s">
+        <v>317</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="57">
-      <c r="A10" s="137"/>
-      <c r="B10" s="139"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="80" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="57">
-      <c r="A11" s="137"/>
-      <c r="B11" s="139"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="84" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="137"/>
-      <c r="B12" s="139"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="4" t="s">
-        <v>324</v>
+        <v>493</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="137"/>
-      <c r="B13" s="139"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="7" t="s">
-        <v>11</v>
+        <v>490</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="137"/>
-      <c r="B14" s="139"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="143"/>
       <c r="C14" s="84" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D14" s="92" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="28.5">
-      <c r="A15" s="137"/>
-      <c r="B15" s="139"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="84" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="92" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="137"/>
-      <c r="B16" s="139"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="143"/>
       <c r="C16" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="137"/>
-      <c r="B17" s="139"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D17" s="71" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="137"/>
-      <c r="B18" s="139"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="143"/>
       <c r="C18" s="5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="137"/>
-      <c r="B19" s="139"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="143"/>
       <c r="C19" s="7" t="s">
-        <v>311</v>
+        <v>494</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="137"/>
-      <c r="B20" s="139"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="143"/>
       <c r="C20" s="7" t="s">
-        <v>310</v>
+        <v>495</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="28.5">
-      <c r="A21" s="137"/>
-      <c r="B21" s="139"/>
+      <c r="A21" s="145"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57">
-      <c r="A22" s="137"/>
-      <c r="B22" s="140" t="s">
+      <c r="A22" s="145"/>
+      <c r="B22" s="142" t="s">
+        <v>435</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>455</v>
-      </c>
       <c r="E22" s="12" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="137"/>
-      <c r="B23" s="139"/>
+      <c r="A23" s="145"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5">
-      <c r="A24" s="137"/>
-      <c r="B24" s="139"/>
+      <c r="A24" s="145"/>
+      <c r="B24" s="143"/>
       <c r="C24" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="57">
-      <c r="A25" s="138"/>
-      <c r="B25" s="139"/>
+      <c r="A25" s="146"/>
+      <c r="B25" s="143"/>
       <c r="C25" s="84" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D25" s="85" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -39080,380 +39085,380 @@
     <row r="27" spans="1:5" ht="209.25" customHeight="1">
       <c r="A27" s="43"/>
       <c r="B27" s="43" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="25"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="71.25">
-      <c r="A28" s="140" t="s">
-        <v>298</v>
-      </c>
-      <c r="B28" s="140" t="s">
-        <v>297</v>
+      <c r="A28" s="142" t="s">
+        <v>291</v>
+      </c>
+      <c r="B28" s="142" t="s">
+        <v>290</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="114">
-      <c r="A29" s="139"/>
-      <c r="B29" s="139"/>
+      <c r="A29" s="143"/>
+      <c r="B29" s="143"/>
       <c r="C29" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="85.5">
-      <c r="A30" s="139"/>
-      <c r="B30" s="139"/>
+      <c r="A30" s="143"/>
+      <c r="B30" s="143"/>
       <c r="C30" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="139"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="144" t="s">
-        <v>290</v>
-      </c>
-      <c r="D31" s="145" t="s">
-        <v>289</v>
+      <c r="A31" s="143"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="140" t="s">
+        <v>283</v>
+      </c>
+      <c r="D31" s="141" t="s">
+        <v>282</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="42.75">
-      <c r="A32" s="139"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="145"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="141"/>
       <c r="E32" s="59" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="139"/>
-      <c r="B33" s="139"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="143"/>
       <c r="C33" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="5" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="139"/>
-      <c r="B34" s="139"/>
+      <c r="A34" s="143"/>
+      <c r="B34" s="143"/>
       <c r="C34" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="5" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="139"/>
-      <c r="B35" s="139"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="5" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="139"/>
-      <c r="B36" s="139"/>
+      <c r="A36" s="143"/>
+      <c r="B36" s="143"/>
       <c r="C36" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="5" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="114">
-      <c r="A37" s="139"/>
-      <c r="B37" s="139"/>
+      <c r="A37" s="143"/>
+      <c r="B37" s="143"/>
       <c r="C37" s="18" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D37" s="60" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E37" s="59" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="42.75">
-      <c r="A38" s="139"/>
-      <c r="B38" s="139"/>
+      <c r="A38" s="143"/>
+      <c r="B38" s="143"/>
       <c r="C38" s="18" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D38" s="60" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E38" s="59" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="139"/>
-      <c r="B39" s="139"/>
+      <c r="A39" s="143"/>
+      <c r="B39" s="143"/>
       <c r="C39" s="5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="139"/>
-      <c r="B40" s="139"/>
+      <c r="A40" s="143"/>
+      <c r="B40" s="143"/>
       <c r="C40" s="5" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="57">
-      <c r="A41" s="139"/>
-      <c r="B41" s="139"/>
+      <c r="A41" s="143"/>
+      <c r="B41" s="143"/>
       <c r="C41" s="18" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D41" s="60" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="139"/>
-      <c r="B42" s="139"/>
+      <c r="A42" s="143"/>
+      <c r="B42" s="143"/>
       <c r="C42" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="139"/>
-      <c r="B43" s="140" t="s">
-        <v>426</v>
+      <c r="A43" s="143"/>
+      <c r="B43" s="142" t="s">
+        <v>416</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="139"/>
-      <c r="B44" s="139"/>
+      <c r="A44" s="143"/>
+      <c r="B44" s="143"/>
       <c r="C44" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="139"/>
-      <c r="B45" s="139"/>
+      <c r="A45" s="143"/>
+      <c r="B45" s="143"/>
       <c r="C45" s="5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="139"/>
-      <c r="B46" s="139"/>
+      <c r="A46" s="143"/>
+      <c r="B46" s="143"/>
       <c r="C46" s="5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="42.75">
-      <c r="A47" s="139"/>
-      <c r="B47" s="139"/>
+      <c r="A47" s="143"/>
+      <c r="B47" s="143"/>
       <c r="C47" s="16" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="17" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="139"/>
-      <c r="B48" s="140" t="s">
-        <v>427</v>
+      <c r="A48" s="143"/>
+      <c r="B48" s="142" t="s">
+        <v>417</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="139"/>
-      <c r="B49" s="139"/>
+      <c r="A49" s="143"/>
+      <c r="B49" s="143"/>
       <c r="C49" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="139"/>
-      <c r="B50" s="139"/>
+      <c r="A50" s="143"/>
+      <c r="B50" s="143"/>
       <c r="C50" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="139"/>
-      <c r="B51" s="139"/>
+      <c r="A51" s="143"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="42.75">
-      <c r="A52" s="139"/>
-      <c r="B52" s="139"/>
+      <c r="A52" s="143"/>
+      <c r="B52" s="143"/>
       <c r="C52" s="16" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D52" s="36"/>
       <c r="E52" s="17" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.5">
-      <c r="A53" s="139"/>
-      <c r="B53" s="140" t="s">
-        <v>414</v>
+      <c r="A53" s="143"/>
+      <c r="B53" s="142" t="s">
+        <v>404</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="139"/>
-      <c r="B54" s="139"/>
+      <c r="A54" s="143"/>
+      <c r="B54" s="143"/>
       <c r="C54" s="16" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="139"/>
-      <c r="B55" s="139"/>
+      <c r="A55" s="143"/>
+      <c r="B55" s="143"/>
       <c r="C55" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="28.5">
-      <c r="A56" s="139"/>
-      <c r="B56" s="140" t="s">
-        <v>415</v>
+      <c r="A56" s="143"/>
+      <c r="B56" s="142" t="s">
+        <v>405</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="139"/>
-      <c r="B57" s="139"/>
+      <c r="A57" s="143"/>
+      <c r="B57" s="143"/>
       <c r="C57" s="16" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="139"/>
-      <c r="B58" s="139"/>
+      <c r="A58" s="143"/>
+      <c r="B58" s="143"/>
       <c r="C58" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -39465,150 +39470,150 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="99.75">
-      <c r="A60" s="136" t="s">
-        <v>240</v>
-      </c>
-      <c r="B60" s="149" t="s">
-        <v>239</v>
+      <c r="A60" s="147" t="s">
+        <v>233</v>
+      </c>
+      <c r="B60" s="150" t="s">
+        <v>232</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="147"/>
-      <c r="B61" s="150"/>
+      <c r="A61" s="148"/>
+      <c r="B61" s="151"/>
       <c r="C61" s="18" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="1:5" ht="57">
-      <c r="A62" s="137"/>
-      <c r="B62" s="148" t="s">
-        <v>236</v>
+      <c r="A62" s="145"/>
+      <c r="B62" s="149" t="s">
+        <v>229</v>
       </c>
       <c r="C62" s="84" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D62" s="85" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="42.75">
-      <c r="A63" s="137"/>
-      <c r="B63" s="148"/>
+      <c r="A63" s="145"/>
+      <c r="B63" s="149"/>
       <c r="C63" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="42.75">
-      <c r="A64" s="137"/>
-      <c r="B64" s="148"/>
+      <c r="A64" s="145"/>
+      <c r="B64" s="149"/>
       <c r="C64" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="57">
-      <c r="A65" s="137"/>
-      <c r="B65" s="148"/>
+      <c r="A65" s="145"/>
+      <c r="B65" s="149"/>
       <c r="C65" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="42.75">
-      <c r="A66" s="137"/>
-      <c r="B66" s="148"/>
+      <c r="A66" s="145"/>
+      <c r="B66" s="149"/>
       <c r="C66" s="82" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D66" s="83" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="42.75">
-      <c r="A67" s="137"/>
-      <c r="B67" s="148"/>
+      <c r="A67" s="145"/>
+      <c r="B67" s="149"/>
       <c r="C67" s="98" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D67" s="99" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="57">
-      <c r="A68" s="137"/>
-      <c r="B68" s="148"/>
+      <c r="A68" s="145"/>
+      <c r="B68" s="149"/>
       <c r="C68" s="82" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D68" s="83" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="28.5">
-      <c r="A69" s="137"/>
-      <c r="B69" s="148"/>
+      <c r="A69" s="145"/>
+      <c r="B69" s="149"/>
       <c r="C69" s="82" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D69" s="83" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="71.25">
-      <c r="A70" s="138"/>
-      <c r="B70" s="148"/>
+      <c r="A70" s="146"/>
+      <c r="B70" s="149"/>
       <c r="C70" s="30" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D70" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -39626,137 +39631,144 @@
       <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" ht="57">
-      <c r="A73" s="141" t="s">
-        <v>216</v>
-      </c>
-      <c r="B73" s="146" t="s">
-        <v>215</v>
+      <c r="A73" s="137" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" s="144" t="s">
+        <v>208</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>213</v>
+        <v>491</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="142"/>
-      <c r="B74" s="137"/>
+      <c r="A74" s="138"/>
+      <c r="B74" s="145"/>
       <c r="C74" s="31" t="s">
-        <v>211</v>
+        <v>492</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="42.75">
-      <c r="A75" s="142"/>
-      <c r="B75" s="137"/>
+      <c r="A75" s="138"/>
+      <c r="B75" s="145"/>
       <c r="C75" s="31" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="85.5">
-      <c r="A76" s="142"/>
-      <c r="B76" s="137"/>
+      <c r="A76" s="138"/>
+      <c r="B76" s="145"/>
       <c r="C76" s="31" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="42.75">
-      <c r="A77" s="142"/>
-      <c r="B77" s="137"/>
+      <c r="A77" s="138"/>
+      <c r="B77" s="145"/>
       <c r="C77" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="142"/>
-      <c r="B78" s="137"/>
+      <c r="A78" s="138"/>
+      <c r="B78" s="145"/>
       <c r="C78" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" ht="57">
-      <c r="A79" s="142"/>
-      <c r="B79" s="137"/>
+      <c r="A79" s="138"/>
+      <c r="B79" s="145"/>
       <c r="C79" s="30" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="42.75">
-      <c r="A80" s="142"/>
-      <c r="B80" s="137"/>
+      <c r="A80" s="138"/>
+      <c r="B80" s="145"/>
       <c r="C80" s="31" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="142"/>
-      <c r="B81" s="137"/>
+      <c r="A81" s="138"/>
+      <c r="B81" s="145"/>
       <c r="C81" s="30" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E81" s="31"/>
     </row>
     <row r="82" spans="1:5" ht="57">
-      <c r="A82" s="143"/>
-      <c r="B82" s="138"/>
+      <c r="A82" s="139"/>
+      <c r="B82" s="146"/>
       <c r="C82" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -39767,13 +39779,6 @@
     <mergeCell ref="A60:A70"/>
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39799,356 +39804,356 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25">
       <c r="A1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="153" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="C2" s="44" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25">
-      <c r="A3" s="154"/>
+      <c r="A3" s="153"/>
       <c r="B3" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A4" s="154" t="s">
-        <v>21</v>
+      <c r="A4" s="153" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5">
-      <c r="A5" s="154"/>
+      <c r="A5" s="153"/>
       <c r="B5" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5">
-      <c r="A6" s="154"/>
+      <c r="A6" s="153"/>
       <c r="B6" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5">
-      <c r="A7" s="154"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A8" s="154" t="s">
-        <v>30</v>
+      <c r="A8" s="153" t="s">
+        <v>29</v>
       </c>
       <c r="B8" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25">
-      <c r="A9" s="154"/>
+      <c r="A9" s="153"/>
       <c r="B9" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5">
-      <c r="A10" s="154"/>
+      <c r="A10" s="153"/>
       <c r="B10" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
-      <c r="A11" s="151" t="s">
+      <c r="A11" s="154" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="154" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="151" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1">
-      <c r="A12" s="152"/>
+      <c r="A12" s="155"/>
       <c r="B12" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="152"/>
+        <v>38</v>
+      </c>
+      <c r="C12" s="155"/>
     </row>
     <row r="13" spans="1:3" ht="17.25">
-      <c r="A13" s="153" t="s">
-        <v>40</v>
+      <c r="A13" s="152" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
-      <c r="A14" s="153"/>
+      <c r="A14" s="152"/>
       <c r="B14" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25">
-      <c r="A15" s="153"/>
+      <c r="A15" s="152"/>
       <c r="B15" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5">
-      <c r="A16" s="153"/>
+      <c r="A16" s="152"/>
       <c r="B16" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5">
-      <c r="A17" s="153"/>
+      <c r="A17" s="152"/>
       <c r="B17" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
-      <c r="A18" s="153" t="s">
-        <v>51</v>
+      <c r="A18" s="152" t="s">
+        <v>50</v>
       </c>
       <c r="B18" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25">
-      <c r="A19" s="153"/>
+      <c r="A19" s="152"/>
       <c r="B19" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25">
-      <c r="A20" s="153"/>
+      <c r="A20" s="152"/>
       <c r="B20" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
-      <c r="A21" s="153"/>
+      <c r="A21" s="152"/>
       <c r="B21" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75">
-      <c r="A22" s="153"/>
+      <c r="A22" s="152"/>
       <c r="B22" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5">
-      <c r="A23" s="153" t="s">
-        <v>58</v>
+      <c r="A23" s="152" t="s">
+        <v>57</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25">
-      <c r="A24" s="153"/>
+      <c r="A24" s="152"/>
       <c r="B24" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3" ht="17.25">
-      <c r="A25" s="153"/>
+      <c r="A25" s="152"/>
       <c r="B25" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:3" ht="17.25">
-      <c r="A26" s="153"/>
+      <c r="A26" s="152"/>
       <c r="B26" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:3" ht="17.25">
-      <c r="A27" s="153"/>
+      <c r="A27" s="152"/>
       <c r="B27" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="21"/>
     </row>
     <row r="28" spans="1:3" ht="17.25">
-      <c r="A28" s="153"/>
+      <c r="A28" s="152"/>
       <c r="B28" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" ht="17.25">
-      <c r="A29" s="153" t="s">
-        <v>61</v>
+      <c r="A29" s="152" t="s">
+        <v>60</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="21"/>
     </row>
     <row r="30" spans="1:3" ht="17.25">
-      <c r="A30" s="153"/>
+      <c r="A30" s="152"/>
       <c r="B30" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:3" ht="17.25">
-      <c r="A31" s="153"/>
+      <c r="A31" s="152"/>
       <c r="B31" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="21"/>
     </row>
     <row r="32" spans="1:3" ht="17.25">
-      <c r="A32" s="153"/>
+      <c r="A32" s="152"/>
       <c r="B32" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3" ht="17.25">
-      <c r="A33" s="153"/>
+      <c r="A33" s="152"/>
       <c r="B33" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="153"/>
+      <c r="A34" s="152"/>
       <c r="B34" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="21"/>
     </row>
     <row r="35" spans="1:3" ht="17.25">
       <c r="A35" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5">
-      <c r="A36" s="153" t="s">
-        <v>17</v>
+      <c r="A36" s="152" t="s">
+        <v>16</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5">
-      <c r="A37" s="153"/>
+      <c r="A37" s="152"/>
       <c r="B37" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5">
-      <c r="A38" s="153"/>
+      <c r="A38" s="152"/>
       <c r="B38" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A28"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
